--- a/static/Automated Data/SI Report.xlsx
+++ b/static/Automated Data/SI Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,76 +463,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SISReport_SIS2522532_01092025.pdf</t>
+          <t>NISRReport(Contractor)_S2025005085.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SIS2522532</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CALVINHO</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01092025</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SISReport_SIS2522532_01092025.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SIS2522532</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HAIDARBINJUNIDI</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>01092025</t>
-        </is>
-      </c>
+          <t>NISRReport(Contractor)_S2025005085.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SISReport_SIS2522576_02092025.pdf</t>
+          <t>SISReport_SIS2522532_01092025.pdf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SIS2522576</t>
+          <t>SIS2522532</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSTINCHUE</t>
+          <t>CALVINHO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,27 +528,918 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>SISReport_SIS2522532_01092025.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SIS2522532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HAIDARBINJUNIDI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>SISReport_SIS2522576_02092025.pdf</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>SIS2522576</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2522576_02092025.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SIS2522576</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MUHAMMADJAMALULLAILBINMAHADI</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>01092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2522707_03092025.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SIS2522707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MERVINHO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>03092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2522707_03092025.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SIS2522707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>03092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2522996_06092025.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SIS2522996</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MUHAMMADJAMALULLAILBINMAHADI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>05092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2522996_06092025.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SIS2522996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>05092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523265_09092025.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SIS2523265</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ABDULHAKIMBINYUSOF</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>08092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523265_09092025.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SIS2523265</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>08092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523524_11092025.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SIS2523524</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MERVINHO</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523524_11092025.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SIS2523524</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>JACINTANISHANTHID/ODHARMARAJ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523636_12092025.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SIS2523636</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MOHAMMADABDULRAHIMIBINRAHMAT</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523636_12092025.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SIS2523636</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>REYNILDARAHAYUBINTEOSMAN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523636_12092025.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SIS2523636</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MUHAMMADJAMALULLAILBINMAHADI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523781_14092025.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SIS2523781</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2523781_14092025.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SIS2523781</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MUHAMMADJAMALULLAILBINMAHADI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>13092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524026_16092025.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SIS2524026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MOHAMMADABDULRAHIMIBINRAHMAT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>16092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524026_16092025.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SIS2524026</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>16092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524203_18092025.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SIS2524203</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MUHAMMADJAMALULLAILBINMAHADI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524203_18092025.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SIS2524203</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>17092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524440_20092025.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SIS2524440</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CALVINHO</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524440_20092025.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SIS2524440</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524548_22092025.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SIS2524548</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MUHAMMADJAMALULLAILBINMAHADI</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524548_22092025.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SIS2524548</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524903_25092025.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SIS2524903</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CHNGMINGHAO</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524903_25092025.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SIS2524903</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LEESIAKQUEE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524903_25092025.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SIS2524903</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LARRYWONGHENGKEONG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2524903_25092025.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SIS2524903</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>JOULBERTCHNG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2525099_27092025.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SIS2525099</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>HAIDARBINJUNIDI</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2525099_27092025.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIS2525099</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2525228_28092025.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SIS2525228</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2525228_28092025.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIS2525228</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MOHAMMADABDULRAHIMIBINRAHMAT</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2525386_30092025.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SIS2525386</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>HAIDARBINJUNIDI</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29092025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SISReport_SIS2525386_30092025.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SIS2525386</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>AUSTINCHUE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29092025</t>
         </is>
       </c>
     </row>

--- a/static/Automated Data/SI Report.xlsx
+++ b/static/Automated Data/SI Report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SI Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SI Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
